--- a/social_media_cleaned.xlsx
+++ b/social_media_cleaned.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rutgers\SEM 2\MVA\R Exercise\Socia Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00711826-A457-3741-A9C2-EBAD3BBB5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79ED1B-8AA9-4C20-B4F0-078EDF75CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15820" xr2:uid="{B756B532-85B4-A24E-ABE9-597C77252AC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B756B532-85B4-A24E-ABE9-597C77252AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Instagram</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>How you felt the entire week?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trouble_falling_asleep </t>
+  </si>
+  <si>
+    <t>Mood Productivity</t>
+  </si>
+  <si>
+    <t>Tired waking up in morning</t>
   </si>
 </sst>
 </file>
@@ -498,19 +507,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C3E88-4B2F-A346-B419-A15A7456B7EC}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
+    <col min="10" max="12" width="8"/>
+    <col min="13" max="13" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -539,10 +549,19 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -571,10 +590,19 @@
         <v>2.5</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -603,10 +631,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -635,10 +672,19 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -667,10 +713,19 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -699,10 +754,19 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -731,10 +795,19 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -763,10 +836,19 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -795,10 +877,19 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -827,10 +918,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -859,10 +959,19 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -891,10 +1000,19 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -923,10 +1041,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -955,10 +1082,19 @@
         <v>0.01</v>
       </c>
       <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -987,10 +1123,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1019,10 +1164,19 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1051,10 +1205,19 @@
         <v>0.5</v>
       </c>
       <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1083,10 +1246,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1115,10 +1287,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2134</v>
       </c>
@@ -1147,10 +1328,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>15801</v>
       </c>
@@ -1179,10 +1369,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1211,6 +1410,15 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>3</v>
       </c>
     </row>
